--- a/James_M_Halaz_Week2Homework.xlsx
+++ b/James_M_Halaz_Week2Homework.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\code\SavvyCoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A65FFB0-820B-46D7-AEDD-D7B3AEF23919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC059E5-92C0-4DD7-A07E-234243BCDD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="4" r:id="rId1"/>
     <sheet name="Expenses" sheetId="1" r:id="rId2"/>
     <sheet name="Roster" sheetId="2" r:id="rId3"/>
-    <sheet name="Credit Card Debit" sheetId="3" r:id="rId4"/>
+    <sheet name="Credit Card Debt" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -572,7 +572,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +610,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -653,7 +661,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -717,253 +725,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <b val="0"/>
@@ -1141,17 +910,113 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2059,7 +1924,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Credit Card Debit'!$G$3</c:f>
+              <c:f>'Credit Card Debt'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2080,7 +1945,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Credit Card Debit'!$A$4:$A$8</c:f>
+              <c:f>'Credit Card Debt'!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2103,7 +1968,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Credit Card Debit'!$G$4:$G$8</c:f>
+              <c:f>'Credit Card Debt'!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2154,7 +2019,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$B$3</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$B$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2181,7 +2046,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$A$4:$A$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2210,7 +2075,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$B$4:$B$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$B$4:$B$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2251,7 +2116,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$C$3</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$C$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2278,7 +2143,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$A$4:$A$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2307,7 +2172,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$C$4:$C$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$C$4:$C$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2348,7 +2213,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$D$3</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$D$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2375,7 +2240,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$A$4:$A$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2404,7 +2269,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$D$4:$D$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$D$4:$D$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2445,7 +2310,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$E$3</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$E$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2472,7 +2337,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$A$4:$A$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2501,7 +2366,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$E$4:$E$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$E$4:$E$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2542,7 +2407,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$F$3</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$F$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2569,7 +2434,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$A$4:$A$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2598,7 +2463,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$F$4:$F$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$F$4:$F$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2866,7 +2731,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Credit Card Debit'!$B$3</c:f>
+              <c:f>'Credit Card Debt'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2888,7 +2753,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Credit Card Debit'!$A$4:$A$8</c:f>
+              <c:f>'Credit Card Debt'!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2912,7 +2777,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Credit Card Debit'!$B$4:$B$8</c:f>
+              <c:f>'Credit Card Debt'!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2946,7 +2811,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Credit Card Debit'!$G$3</c:f>
+              <c:f>'Credit Card Debt'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2967,7 +2832,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Credit Card Debit'!$A$4:$A$8</c:f>
+              <c:f>'Credit Card Debt'!$A$4:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2990,7 +2855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Credit Card Debit'!$G$4:$G$8</c:f>
+              <c:f>'Credit Card Debt'!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3040,7 +2905,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$C$3</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$C$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3067,7 +2932,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$A$4:$A$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3096,7 +2961,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$C$4:$C$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$C$4:$C$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3137,7 +3002,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$D$3</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$D$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3164,7 +3029,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$A$4:$A$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3193,7 +3058,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$D$4:$D$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$D$4:$D$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3234,7 +3099,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$E$3</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$E$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3261,7 +3126,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$A$4:$A$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3290,7 +3155,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$E$4:$E$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$E$4:$E$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3331,7 +3196,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$F$3</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$F$3</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3358,7 +3223,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$A$4:$A$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$A$4:$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3387,7 +3252,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'Credit Card Debit'!$F$4:$F$8</c15:sqref>
+                          <c15:sqref>'Credit Card Debt'!$F$4:$F$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7851,7 +7716,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD0E7EE3-62BA-4480-B45B-D0BAF1C397F1}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" colHeaderCaption="Column Labels (Bank Codes)">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD0E7EE3-62BA-4480-B45B-D0BAF1C397F1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" colHeaderCaption="Column Labels (Bank Codes)">
   <location ref="A3:E25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField numFmtId="14" showAll="0"/>
@@ -8116,7 +7981,7 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="14">
-    <format dxfId="58">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="1" selected="0">
@@ -8125,51 +7990,51 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="24">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="23">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="22">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="21">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="18">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="17">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="16">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="15">
       <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -8224,20 +8089,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98C479B4-B5ED-4E1E-B266-5CF4E704E745}" name="Table2" displayName="Table2" ref="A2:I210" totalsRowShown="0" headerRowDxfId="62" dataDxfId="63" headerRowBorderDxfId="73" tableBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98C479B4-B5ED-4E1E-B266-5CF4E704E745}" name="Table2" displayName="Table2" ref="A2:I210" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A2:I210" xr:uid="{98C479B4-B5ED-4E1E-B266-5CF4E704E745}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{19ADF2C3-BC81-4E50-AD61-9234E2781141}" name="Document Date" dataDxfId="72"/>
-    <tableColumn id="2" xr3:uid="{67318FBE-BB45-4517-9543-4DEFB7A6981B}" name="Supplier" dataDxfId="71"/>
-    <tableColumn id="3" xr3:uid="{54AFDE80-7C2E-4A4A-8B6E-BFB2C66B92F7}" name="Reference" dataDxfId="70"/>
-    <tableColumn id="4" xr3:uid="{C69A9860-DFAF-4AF5-93AF-E011E78F1135}" name="Description" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{DAF00F9C-ABF2-4F42-8765-EE88FF737782}" name="Tax Inclusive Amount" dataDxfId="68" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{037A356D-FB1C-4A1A-8C0A-78288776968F}" name="Column1" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{1AC86C61-705F-4E38-A569-BED0279191EE}" name="Bank Code" dataDxfId="66"/>
-    <tableColumn id="8" xr3:uid="{E94B76C0-789A-4749-8EC7-F56D4D3262EB}" name="Account Code" dataDxfId="65"/>
-    <tableColumn id="9" xr3:uid="{577C96AA-C0D1-49B8-BC17-83C307EEE0C9}" name="Payment Date" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{19ADF2C3-BC81-4E50-AD61-9234E2781141}" name="Document Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{67318FBE-BB45-4517-9543-4DEFB7A6981B}" name="Supplier" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{54AFDE80-7C2E-4A4A-8B6E-BFB2C66B92F7}" name="Reference" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{C69A9860-DFAF-4AF5-93AF-E011E78F1135}" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{DAF00F9C-ABF2-4F42-8765-EE88FF737782}" name="Tax Inclusive Amount" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{037A356D-FB1C-4A1A-8C0A-78288776968F}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{1AC86C61-705F-4E38-A569-BED0279191EE}" name="Bank Code" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E94B76C0-789A-4749-8EC7-F56D4D3262EB}" name="Account Code" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{577C96AA-C0D1-49B8-BC17-83C307EEE0C9}" name="Payment Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AE7CB64D-2878-44BC-A6A3-E8884E4D8D8D}" name="Table5" displayName="Table5" ref="A2:E23" headerRowCount="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{ECB5DD15-0C8D-4561-A23D-4D7E22E45D1C}" name="Column1" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{13F3E02F-B890-48D5-ACAE-DF96A3742398}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{0701C3DE-EB60-4231-853E-90E8AE6D2B65}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{89E9F8F4-C625-468D-88BF-BBEEA9C1CBB3}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{F7E343FA-2477-4B45-8EB9-C03D10432FAE}" name="Column5" totalsRowFunction="count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium28" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -8540,18 +8418,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF614B60-7E5C-47B4-9EE6-F7702B943AC4}">
   <dimension ref="A3:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.6328125" customWidth="1"/>
+    <col min="1" max="7" width="16.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -14993,61 +14866,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A62A6-F03F-4F2C-82CD-B57430E52110}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.26953125" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="27" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="27" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>144</v>
@@ -15055,13 +14915,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>144</v>
@@ -15069,13 +14929,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
         <v>144</v>
@@ -15083,13 +14943,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
         <v>144</v>
@@ -15097,13 +14957,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>144</v>
@@ -15111,13 +14971,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
         <v>144</v>
@@ -15125,13 +14985,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
         <v>144</v>
@@ -15139,13 +14999,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12">
         <v>13</v>
       </c>
       <c r="D12">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
         <v>144</v>
@@ -15153,13 +15013,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
         <v>144</v>
@@ -15167,10 +15027,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>85</v>
@@ -15179,91 +15039,109 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C16">
-        <f>MIN(C4:C14)</f>
+      <c r="C17">
+        <f>MIN(C5:C15)</f>
         <v>11</v>
       </c>
-      <c r="D16">
-        <f>MIN(D4:D14)</f>
+      <c r="D17">
+        <f>MIN(D5:D15)</f>
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C17">
-        <f>MAX(C4:C14)</f>
+      <c r="C18">
+        <f>MAX(C5:C15)</f>
         <v>15</v>
       </c>
-      <c r="D17">
-        <f>MAX(D4:D14)</f>
+      <c r="D18">
+        <f>MAX(D5:D15)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C18">
-        <f>AVERAGE(C4:C14)</f>
+      <c r="C19">
+        <f>AVERAGE(C5:C15)</f>
         <v>12.454545454545455</v>
       </c>
-      <c r="D18">
-        <f>AVERAGE(D4:D14)</f>
+      <c r="D19">
+        <f>AVERAGE(D5:D15)</f>
         <v>83.545454545454547</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C19">
-        <f>_xlfn.MODE.SNGL(C4:C14)</f>
+      <c r="C20">
+        <f>_xlfn.MODE.SNGL(C5:C15)</f>
         <v>12</v>
       </c>
-      <c r="D19">
-        <f>MODE(D4:D14)</f>
+      <c r="D20">
+        <f>MODE(D5:D15)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C20">
-        <f>MEDIAN(C4:C14)</f>
+      <c r="C21">
+        <f>MEDIAN(C5:C15)</f>
         <v>12</v>
       </c>
-      <c r="D20">
-        <f>MEDIAN(D4:D14)</f>
+      <c r="D21">
+        <f>MEDIAN(D5:D15)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B21">
-        <f>COUNT(B4:B14)</f>
+      <c r="B22">
+        <f>COUNT(B5:B15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="B22">
-        <f>COUNTA(B4:B14)</f>
+      <c r="B23">
+        <f>COUNTA(B5:B15)</f>
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -15271,8 +15149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E137F0E4-67C0-4298-85D1-7F93F64B1F88}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
